--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.945</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-19.953</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.18</v>
+        <v>-20.131</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.742</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.932</v>
+        <v>-21.928</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.253</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.07</v>
+        <v>-22.461</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.519</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.518</v>
+        <v>-21.073</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-21.902</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.456</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
